--- a/Iodine_embedded_in_watermolecules_zeroh2o_inactivesystem.xlsx
+++ b/Iodine_embedded_in_watermolecules_zeroh2o_inactivesystem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Iodide_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF581458-08E0-A54D-A9A3-AAF2BCC58B17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7735EC71-7A8C-F84C-9BD7-CAB788934E82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22260" yWindow="7960" windowWidth="19540" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
+    <workbookView xWindow="2780" yWindow="4700" windowWidth="19540" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
   <dimension ref="A4:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
